--- a/data/TC084.xlsx
+++ b/data/TC084.xlsx
@@ -356,7 +356,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
